--- a/Code/Results/Cases/Case_1_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_106/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019128207798475</v>
+        <v>1.048611145005293</v>
       </c>
       <c r="D2">
-        <v>1.045572651166319</v>
+        <v>1.056815874688694</v>
       </c>
       <c r="E2">
-        <v>1.034057776043322</v>
+        <v>1.056015028638772</v>
       </c>
       <c r="F2">
-        <v>1.047712643451824</v>
+        <v>1.066967185681081</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054834085032148</v>
+        <v>1.047006889342252</v>
       </c>
       <c r="J2">
-        <v>1.04075147096633</v>
+        <v>1.053653978139931</v>
       </c>
       <c r="K2">
-        <v>1.056431599895554</v>
+        <v>1.059552549529211</v>
       </c>
       <c r="L2">
-        <v>1.045062178279919</v>
+        <v>1.058753901153756</v>
       </c>
       <c r="M2">
-        <v>1.05854499903734</v>
+        <v>1.069676312792945</v>
       </c>
       <c r="N2">
-        <v>1.017053787753381</v>
+        <v>1.021679010047283</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023826827740267</v>
+        <v>1.049613194974895</v>
       </c>
       <c r="D3">
-        <v>1.048567176650095</v>
+        <v>1.057469218873087</v>
       </c>
       <c r="E3">
-        <v>1.037832088556272</v>
+        <v>1.056866210320243</v>
       </c>
       <c r="F3">
-        <v>1.051439732198987</v>
+        <v>1.06780560143377</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056163475598212</v>
+        <v>1.047241365004617</v>
       </c>
       <c r="J3">
-        <v>1.043688371620932</v>
+        <v>1.054304717182346</v>
       </c>
       <c r="K3">
-        <v>1.058614172201854</v>
+        <v>1.060020015334928</v>
       </c>
       <c r="L3">
-        <v>1.048002745255409</v>
+        <v>1.05941854236296</v>
       </c>
       <c r="M3">
-        <v>1.061454165651033</v>
+        <v>1.070330366393827</v>
       </c>
       <c r="N3">
-        <v>1.018063226994565</v>
+        <v>1.021899648094838</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026806535292481</v>
+        <v>1.05026214237279</v>
       </c>
       <c r="D4">
-        <v>1.050470654365437</v>
+        <v>1.057892396448508</v>
       </c>
       <c r="E4">
-        <v>1.040231562083364</v>
+        <v>1.057417793531764</v>
       </c>
       <c r="F4">
-        <v>1.053809533357123</v>
+        <v>1.068348892134907</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056998780657281</v>
+        <v>1.047392189086405</v>
       </c>
       <c r="J4">
-        <v>1.045548524640933</v>
+        <v>1.054725725404637</v>
       </c>
       <c r="K4">
-        <v>1.05999583769</v>
+        <v>1.060322229707767</v>
       </c>
       <c r="L4">
-        <v>1.049867514551014</v>
+        <v>1.059848774745822</v>
       </c>
       <c r="M4">
-        <v>1.063299165464266</v>
+        <v>1.070753711405034</v>
       </c>
       <c r="N4">
-        <v>1.018702146215948</v>
+        <v>1.022042290009998</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028045213532862</v>
+        <v>1.050535091676219</v>
       </c>
       <c r="D5">
-        <v>1.051262932014038</v>
+        <v>1.058070399391584</v>
       </c>
       <c r="E5">
-        <v>1.041230406757183</v>
+        <v>1.057649872117223</v>
       </c>
       <c r="F5">
-        <v>1.054796096585629</v>
+        <v>1.068577476704975</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057344120697159</v>
+        <v>1.047455380138377</v>
       </c>
       <c r="J5">
-        <v>1.046321203291283</v>
+        <v>1.054902701152968</v>
       </c>
       <c r="K5">
-        <v>1.060569559594638</v>
+        <v>1.060449215600379</v>
       </c>
       <c r="L5">
-        <v>1.05064265518908</v>
+        <v>1.060029682910425</v>
       </c>
       <c r="M5">
-        <v>1.064066111322609</v>
+        <v>1.070931715244745</v>
       </c>
       <c r="N5">
-        <v>1.018967433903537</v>
+        <v>1.022102226187456</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028252387280293</v>
+        <v>1.050580928771253</v>
       </c>
       <c r="D6">
-        <v>1.051395499788265</v>
+        <v>1.058100292635854</v>
       </c>
       <c r="E6">
-        <v>1.041397546648202</v>
+        <v>1.057688850412077</v>
       </c>
       <c r="F6">
-        <v>1.054961185144755</v>
+        <v>1.068615867874651</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057401767301921</v>
+        <v>1.047465977547003</v>
       </c>
       <c r="J6">
-        <v>1.046450400752963</v>
+        <v>1.054932415188621</v>
       </c>
       <c r="K6">
-        <v>1.060665477447739</v>
+        <v>1.060470533246718</v>
       </c>
       <c r="L6">
-        <v>1.050772296155021</v>
+        <v>1.060060060412789</v>
       </c>
       <c r="M6">
-        <v>1.064194382748679</v>
+        <v>1.070961604573721</v>
       </c>
       <c r="N6">
-        <v>1.019011785325539</v>
+        <v>1.02211228793614</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026823140875632</v>
+        <v>1.050265789017809</v>
       </c>
       <c r="D7">
-        <v>1.050481271725448</v>
+        <v>1.057894774545084</v>
       </c>
       <c r="E7">
-        <v>1.040244947128822</v>
+        <v>1.057420893820478</v>
       </c>
       <c r="F7">
-        <v>1.053822753563838</v>
+        <v>1.068351945767439</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057003417805715</v>
+        <v>1.04739303429538</v>
       </c>
       <c r="J7">
-        <v>1.045558885484746</v>
+        <v>1.054728090227688</v>
       </c>
       <c r="K7">
-        <v>1.060003531553062</v>
+        <v>1.060323926756314</v>
       </c>
       <c r="L7">
-        <v>1.049877906263956</v>
+        <v>1.05985119189972</v>
       </c>
       <c r="M7">
-        <v>1.063309447240318</v>
+        <v>1.070756089786247</v>
       </c>
       <c r="N7">
-        <v>1.018705703896999</v>
+        <v>1.022043091000417</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020729000446943</v>
+        <v>1.048949677263292</v>
       </c>
       <c r="D8">
-        <v>1.046591889489745</v>
+        <v>1.057036587504341</v>
       </c>
       <c r="E8">
-        <v>1.035342387648229</v>
+        <v>1.056302520595485</v>
       </c>
       <c r="F8">
-        <v>1.048981100638671</v>
+        <v>1.067250369883697</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055288600172168</v>
+        <v>1.047086316952607</v>
       </c>
       <c r="J8">
-        <v>1.041752522201826</v>
+        <v>1.053873911031655</v>
       </c>
       <c r="K8">
-        <v>1.057175668699206</v>
+        <v>1.059710586495946</v>
       </c>
       <c r="L8">
-        <v>1.046063994060955</v>
+        <v>1.058978484950809</v>
       </c>
       <c r="M8">
-        <v>1.059536079977431</v>
+        <v>1.069897325927745</v>
       </c>
       <c r="N8">
-        <v>1.017397945236231</v>
+        <v>1.021753601484747</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00950136856761</v>
+        <v>1.046634800174194</v>
       </c>
       <c r="D9">
-        <v>1.039465232224664</v>
+        <v>1.055527637027563</v>
       </c>
       <c r="E9">
-        <v>1.026359726067551</v>
+        <v>1.054338079856863</v>
       </c>
       <c r="F9">
-        <v>1.040113451580553</v>
+        <v>1.06531528938022</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05206957548557</v>
+        <v>1.046538994153726</v>
       </c>
       <c r="J9">
-        <v>1.034723013417037</v>
+        <v>1.052368292731427</v>
       </c>
       <c r="K9">
-        <v>1.051948894203225</v>
+        <v>1.058627801916892</v>
       </c>
       <c r="L9">
-        <v>1.039039136717774</v>
+        <v>1.057441974429183</v>
       </c>
       <c r="M9">
-        <v>1.052587594060901</v>
+        <v>1.068385111707588</v>
       </c>
       <c r="N9">
-        <v>1.01497962901056</v>
+        <v>1.021242539321749</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001650664741309</v>
+        <v>1.045094474165819</v>
       </c>
       <c r="D10">
-        <v>1.034513826447179</v>
+        <v>1.054523967933517</v>
       </c>
       <c r="E10">
-        <v>1.020116093866326</v>
+        <v>1.053032750718939</v>
       </c>
       <c r="F10">
-        <v>1.033953041710405</v>
+        <v>1.064029382786807</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04978110024543</v>
+        <v>1.046169541716841</v>
       </c>
       <c r="J10">
-        <v>1.029798944388912</v>
+        <v>1.051364301595046</v>
       </c>
       <c r="K10">
-        <v>1.048286683535291</v>
+        <v>1.057904662394428</v>
       </c>
       <c r="L10">
-        <v>1.034131402586739</v>
+        <v>1.056418577076008</v>
       </c>
       <c r="M10">
-        <v>1.0477351794899</v>
+        <v>1.067377736686124</v>
       </c>
       <c r="N10">
-        <v>1.013283863445482</v>
+        <v>1.020901219721667</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9981555688136784</v>
+        <v>1.044428199446057</v>
       </c>
       <c r="D11">
-        <v>1.032318289199178</v>
+        <v>1.05408993194974</v>
       </c>
       <c r="E11">
-        <v>1.017346196213551</v>
+        <v>1.05246856457131</v>
       </c>
       <c r="F11">
-        <v>1.031221074080883</v>
+        <v>1.063473573094704</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048754004838175</v>
+        <v>1.046008487592323</v>
       </c>
       <c r="J11">
-        <v>1.027605280094154</v>
+        <v>1.05092951519133</v>
       </c>
       <c r="K11">
-        <v>1.046655424307731</v>
+        <v>1.057591243620051</v>
       </c>
       <c r="L11">
-        <v>1.031948238589064</v>
+        <v>1.055975671205119</v>
       </c>
       <c r="M11">
-        <v>1.045577284487696</v>
+        <v>1.066941728939262</v>
       </c>
       <c r="N11">
-        <v>1.012528068773552</v>
+        <v>1.020753284429059</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9968421348493157</v>
+        <v>1.044180820716586</v>
       </c>
       <c r="D12">
-        <v>1.031494657285226</v>
+        <v>1.053928797205173</v>
       </c>
       <c r="E12">
-        <v>1.016306829659151</v>
+        <v>1.052259156754139</v>
       </c>
       <c r="F12">
-        <v>1.030196112918753</v>
+        <v>1.063267271787045</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048366843652609</v>
+        <v>1.045948503377842</v>
       </c>
       <c r="J12">
-        <v>1.026780745109716</v>
+        <v>1.050768009263723</v>
       </c>
       <c r="K12">
-        <v>1.046042360516214</v>
+        <v>1.057474782699449</v>
       </c>
       <c r="L12">
-        <v>1.031128145800243</v>
+        <v>1.055811192093957</v>
       </c>
       <c r="M12">
-        <v>1.044766800603169</v>
+        <v>1.066779806294438</v>
       </c>
       <c r="N12">
-        <v>1.012243944665625</v>
+        <v>1.020698313774813</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.997124572584119</v>
+        <v>1.044233879514241</v>
       </c>
       <c r="D13">
-        <v>1.031671702358422</v>
+        <v>1.053963357259573</v>
       </c>
       <c r="E13">
-        <v>1.016530261559563</v>
+        <v>1.052304068359901</v>
       </c>
       <c r="F13">
-        <v>1.030416439949222</v>
+        <v>1.063311517253971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048450150480906</v>
+        <v>1.04596137749699</v>
       </c>
       <c r="J13">
-        <v>1.026958057972206</v>
+        <v>1.050802653131828</v>
       </c>
       <c r="K13">
-        <v>1.046174193086134</v>
+        <v>1.057499765902158</v>
       </c>
       <c r="L13">
-        <v>1.031304480814475</v>
+        <v>1.055846471783232</v>
       </c>
       <c r="M13">
-        <v>1.044941063959788</v>
+        <v>1.066814537873201</v>
       </c>
       <c r="N13">
-        <v>1.012305046197976</v>
+        <v>1.020710106106372</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9980473149921526</v>
+        <v>1.044407748889514</v>
       </c>
       <c r="D14">
-        <v>1.032250375211892</v>
+        <v>1.054076610747676</v>
       </c>
       <c r="E14">
-        <v>1.017260499320988</v>
+        <v>1.052451251665186</v>
       </c>
       <c r="F14">
-        <v>1.031136561291948</v>
+        <v>1.063456517072152</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048722118590607</v>
+        <v>1.046003532570752</v>
       </c>
       <c r="J14">
-        <v>1.027537324692638</v>
+        <v>1.050916165196734</v>
       </c>
       <c r="K14">
-        <v>1.046604895788935</v>
+        <v>1.057581617800027</v>
       </c>
       <c r="L14">
-        <v>1.031880639161406</v>
+        <v>1.055962074573346</v>
       </c>
       <c r="M14">
-        <v>1.045510474634702</v>
+        <v>1.066928343743312</v>
       </c>
       <c r="N14">
-        <v>1.012504653044941</v>
+        <v>1.020748740961768</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9986138073081343</v>
+        <v>1.044514889533592</v>
       </c>
       <c r="D15">
-        <v>1.032605828393329</v>
+        <v>1.054146401340185</v>
       </c>
       <c r="E15">
-        <v>1.017709014580973</v>
+        <v>1.052541956872605</v>
       </c>
       <c r="F15">
-        <v>1.031578886431641</v>
+        <v>1.063545876319776</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048888931372861</v>
+        <v>1.046029484313132</v>
       </c>
       <c r="J15">
-        <v>1.02789292873094</v>
+        <v>1.050986102837858</v>
       </c>
       <c r="K15">
-        <v>1.046869310126925</v>
+        <v>1.057632043757679</v>
       </c>
       <c r="L15">
-        <v>1.032234400684959</v>
+        <v>1.056033306048199</v>
       </c>
       <c r="M15">
-        <v>1.045860109020263</v>
+        <v>1.066998467311915</v>
       </c>
       <c r="N15">
-        <v>1.012627183588777</v>
+        <v>1.020772542413304</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001880537718109</v>
+        <v>1.045138707361797</v>
       </c>
       <c r="D16">
-        <v>1.034658420185498</v>
+        <v>1.054552785386095</v>
       </c>
       <c r="E16">
-        <v>1.02029847997213</v>
+        <v>1.053070215706538</v>
       </c>
       <c r="F16">
-        <v>1.034132953096491</v>
+        <v>1.06406629116289</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049848484840487</v>
+        <v>1.046180207665425</v>
       </c>
       <c r="J16">
-        <v>1.029943195402163</v>
+        <v>1.05139315592226</v>
       </c>
       <c r="K16">
-        <v>1.048393960596635</v>
+        <v>1.05792545684717</v>
       </c>
       <c r="L16">
-        <v>1.034275031191235</v>
+        <v>1.056447976252263</v>
       </c>
       <c r="M16">
-        <v>1.047877160894016</v>
+        <v>1.067406677234286</v>
       </c>
       <c r="N16">
-        <v>1.013333556669921</v>
+        <v>1.020911034747956</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.003903489406863</v>
+        <v>1.045530198804942</v>
       </c>
       <c r="D17">
-        <v>1.035931904451652</v>
+        <v>1.054807850182745</v>
       </c>
       <c r="E17">
-        <v>1.021904650656253</v>
+        <v>1.053401855186329</v>
       </c>
       <c r="F17">
-        <v>1.035717447915632</v>
+        <v>1.064393001432812</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050440554184661</v>
+        <v>1.046274463997403</v>
       </c>
       <c r="J17">
-        <v>1.031212484339394</v>
+        <v>1.051648476352433</v>
       </c>
       <c r="K17">
-        <v>1.04933794280579</v>
+        <v>1.058109428980599</v>
       </c>
       <c r="L17">
-        <v>1.035539211537834</v>
+        <v>1.056708150719949</v>
       </c>
       <c r="M17">
-        <v>1.049126920298737</v>
+        <v>1.067662788830474</v>
       </c>
       <c r="N17">
-        <v>1.013770778593854</v>
+        <v>1.020997869675568</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.005074268892755</v>
+        <v>1.04575861630466</v>
       </c>
       <c r="D18">
-        <v>1.036669758887997</v>
+        <v>1.054956679032111</v>
       </c>
       <c r="E18">
-        <v>1.022835137533212</v>
+        <v>1.053595394175506</v>
       </c>
       <c r="F18">
-        <v>1.036635472095734</v>
+        <v>1.064583662040404</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050782423773468</v>
+        <v>1.046329337998527</v>
       </c>
       <c r="J18">
-        <v>1.031946937646066</v>
+        <v>1.051797395401861</v>
       </c>
       <c r="K18">
-        <v>1.049884183487444</v>
+        <v>1.058216708321077</v>
       </c>
       <c r="L18">
-        <v>1.036271013819451</v>
+        <v>1.056859928396236</v>
       </c>
       <c r="M18">
-        <v>1.0498504361756</v>
+        <v>1.067812192866552</v>
       </c>
       <c r="N18">
-        <v>1.014023737732955</v>
+        <v>1.021048505326578</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.005471942428555</v>
+        <v>1.045836512139976</v>
       </c>
       <c r="D19">
-        <v>1.036920519791501</v>
+        <v>1.055007434914834</v>
       </c>
       <c r="E19">
-        <v>1.023151345445681</v>
+        <v>1.053661402771494</v>
       </c>
       <c r="F19">
-        <v>1.036947460235995</v>
+        <v>1.064648688624923</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050898409522287</v>
+        <v>1.046348030937654</v>
       </c>
       <c r="J19">
-        <v>1.032196379977689</v>
+        <v>1.051848172068791</v>
       </c>
       <c r="K19">
-        <v>1.050069705486312</v>
+        <v>1.058253282939822</v>
       </c>
       <c r="L19">
-        <v>1.036519607194707</v>
+        <v>1.056911684415396</v>
       </c>
       <c r="M19">
-        <v>1.050096224584969</v>
+        <v>1.067863138880419</v>
       </c>
       <c r="N19">
-        <v>1.014109644551831</v>
+        <v>1.021065768440816</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.003687400511476</v>
+        <v>1.045488188525824</v>
       </c>
       <c r="D20">
-        <v>1.035795785954129</v>
+        <v>1.054780478561171</v>
       </c>
       <c r="E20">
-        <v>1.021732985873561</v>
+        <v>1.053366263129193</v>
       </c>
       <c r="F20">
-        <v>1.035548089859502</v>
+        <v>1.064357938568867</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050377391653862</v>
+        <v>1.046264361951053</v>
       </c>
       <c r="J20">
-        <v>1.031076915352342</v>
+        <v>1.05162108340148</v>
       </c>
       <c r="K20">
-        <v>1.049237116415456</v>
+        <v>1.058089693451462</v>
       </c>
       <c r="L20">
-        <v>1.035404156464216</v>
+        <v>1.056680234146823</v>
       </c>
       <c r="M20">
-        <v>1.04899339934164</v>
+        <v>1.067635308560685</v>
       </c>
       <c r="N20">
-        <v>1.013724083503716</v>
+        <v>1.020988554523211</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.99777601684831</v>
+        <v>1.044356545777685</v>
       </c>
       <c r="D21">
-        <v>1.03208019747138</v>
+        <v>1.05404325804463</v>
       </c>
       <c r="E21">
-        <v>1.017045756902169</v>
+        <v>1.052407905532395</v>
       </c>
       <c r="F21">
-        <v>1.030924788899506</v>
+        <v>1.063413814055182</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048642188615731</v>
+        <v>1.045991123407266</v>
       </c>
       <c r="J21">
-        <v>1.027367017068164</v>
+        <v>1.050882738906371</v>
       </c>
       <c r="K21">
-        <v>1.046478264277982</v>
+        <v>1.057557515641407</v>
       </c>
       <c r="L21">
-        <v>1.031711231687224</v>
+        <v>1.055928031435284</v>
       </c>
       <c r="M21">
-        <v>1.045343047815513</v>
+        <v>1.066894829912399</v>
       </c>
       <c r="N21">
-        <v>1.012445968642056</v>
+        <v>1.020737364533668</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9939709026452638</v>
+        <v>1.043645647046628</v>
       </c>
       <c r="D22">
-        <v>1.029696928425001</v>
+        <v>1.053580233929145</v>
       </c>
       <c r="E22">
-        <v>1.014037650833451</v>
+        <v>1.051806251506481</v>
       </c>
       <c r="F22">
-        <v>1.027958725895598</v>
+        <v>1.062821080790485</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047518376535846</v>
+        <v>1.045818393125104</v>
       </c>
       <c r="J22">
-        <v>1.024978018759293</v>
+        <v>1.050418472931539</v>
       </c>
       <c r="K22">
-        <v>1.044702179273226</v>
+        <v>1.057222664706337</v>
       </c>
       <c r="L22">
-        <v>1.029336055780038</v>
+        <v>1.055455299649068</v>
       </c>
       <c r="M22">
-        <v>1.042995943018271</v>
+        <v>1.06642943600475</v>
       </c>
       <c r="N22">
-        <v>1.011622678210947</v>
+        <v>1.020579310687384</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9959967349605874</v>
+        <v>1.0440224498567</v>
       </c>
       <c r="D23">
-        <v>1.03096494096875</v>
+        <v>1.053825644285386</v>
       </c>
       <c r="E23">
-        <v>1.015638279982988</v>
+        <v>1.052125113621586</v>
       </c>
       <c r="F23">
-        <v>1.029536880570491</v>
+        <v>1.063135216451008</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048117318400236</v>
+        <v>1.045910049104241</v>
       </c>
       <c r="J23">
-        <v>1.02624998699769</v>
+        <v>1.050664592565096</v>
       </c>
       <c r="K23">
-        <v>1.045647755458489</v>
+        <v>1.057400198841453</v>
       </c>
       <c r="L23">
-        <v>1.030600388230773</v>
+        <v>1.055705883669883</v>
       </c>
       <c r="M23">
-        <v>1.044245261858159</v>
+        <v>1.066676133202304</v>
       </c>
       <c r="N23">
-        <v>1.012061041175363</v>
+        <v>1.020663109337945</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00378507007219</v>
+        <v>1.045507170955131</v>
       </c>
       <c r="D24">
-        <v>1.035857307306591</v>
+        <v>1.054792846452494</v>
       </c>
       <c r="E24">
-        <v>1.021810573431845</v>
+        <v>1.053382345341105</v>
       </c>
       <c r="F24">
-        <v>1.035624634552043</v>
+        <v>1.064373781671248</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050405942803934</v>
+        <v>1.046268926952731</v>
       </c>
       <c r="J24">
-        <v>1.031138191345248</v>
+        <v>1.051633461112529</v>
       </c>
       <c r="K24">
-        <v>1.049282688998086</v>
+        <v>1.05809861117572</v>
       </c>
       <c r="L24">
-        <v>1.035465199227947</v>
+        <v>1.056692848375715</v>
       </c>
       <c r="M24">
-        <v>1.0490537485195</v>
+        <v>1.067647725654759</v>
       </c>
       <c r="N24">
-        <v>1.013745189375196</v>
+        <v>1.020992763681939</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012465573425206</v>
+        <v>1.047232739290678</v>
       </c>
       <c r="D25">
-        <v>1.041341662525471</v>
+        <v>1.055917338415653</v>
       </c>
       <c r="E25">
-        <v>1.028725081352526</v>
+        <v>1.054845183074073</v>
       </c>
       <c r="F25">
-        <v>1.042448027039928</v>
+        <v>1.065814829579909</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052926122728922</v>
+        <v>1.046681298264929</v>
       </c>
       <c r="J25">
-        <v>1.036580582599282</v>
+        <v>1.052757578394785</v>
       </c>
       <c r="K25">
-        <v>1.05333039419657</v>
+        <v>1.058907958386913</v>
       </c>
       <c r="L25">
-        <v>1.040893261744994</v>
+        <v>1.057839037550614</v>
       </c>
       <c r="M25">
-        <v>1.054421284143711</v>
+        <v>1.068775925152006</v>
       </c>
       <c r="N25">
-        <v>1.015619008956266</v>
+        <v>1.021374770652022</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_106/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.048611145005293</v>
+        <v>1.019128207798475</v>
       </c>
       <c r="D2">
-        <v>1.056815874688694</v>
+        <v>1.045572651166319</v>
       </c>
       <c r="E2">
-        <v>1.056015028638772</v>
+        <v>1.034057776043323</v>
       </c>
       <c r="F2">
-        <v>1.066967185681081</v>
+        <v>1.047712643451824</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047006889342252</v>
+        <v>1.054834085032148</v>
       </c>
       <c r="J2">
-        <v>1.053653978139931</v>
+        <v>1.04075147096633</v>
       </c>
       <c r="K2">
-        <v>1.059552549529211</v>
+        <v>1.056431599895554</v>
       </c>
       <c r="L2">
-        <v>1.058753901153756</v>
+        <v>1.045062178279919</v>
       </c>
       <c r="M2">
-        <v>1.069676312792945</v>
+        <v>1.05854499903734</v>
       </c>
       <c r="N2">
-        <v>1.021679010047283</v>
+        <v>1.017053787753381</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.049613194974895</v>
+        <v>1.023826827740267</v>
       </c>
       <c r="D3">
-        <v>1.057469218873087</v>
+        <v>1.048567176650094</v>
       </c>
       <c r="E3">
-        <v>1.056866210320243</v>
+        <v>1.037832088556271</v>
       </c>
       <c r="F3">
-        <v>1.06780560143377</v>
+        <v>1.051439732198987</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047241365004617</v>
+        <v>1.056163475598212</v>
       </c>
       <c r="J3">
-        <v>1.054304717182346</v>
+        <v>1.043688371620932</v>
       </c>
       <c r="K3">
-        <v>1.060020015334928</v>
+        <v>1.058614172201853</v>
       </c>
       <c r="L3">
-        <v>1.05941854236296</v>
+        <v>1.048002745255408</v>
       </c>
       <c r="M3">
-        <v>1.070330366393827</v>
+        <v>1.061454165651032</v>
       </c>
       <c r="N3">
-        <v>1.021899648094838</v>
+        <v>1.018063226994565</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.05026214237279</v>
+        <v>1.026806535292481</v>
       </c>
       <c r="D4">
-        <v>1.057892396448508</v>
+        <v>1.050470654365437</v>
       </c>
       <c r="E4">
-        <v>1.057417793531764</v>
+        <v>1.040231562083363</v>
       </c>
       <c r="F4">
-        <v>1.068348892134907</v>
+        <v>1.053809533357123</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047392189086405</v>
+        <v>1.056998780657281</v>
       </c>
       <c r="J4">
-        <v>1.054725725404637</v>
+        <v>1.045548524640933</v>
       </c>
       <c r="K4">
-        <v>1.060322229707767</v>
+        <v>1.05999583769</v>
       </c>
       <c r="L4">
-        <v>1.059848774745822</v>
+        <v>1.049867514551014</v>
       </c>
       <c r="M4">
-        <v>1.070753711405034</v>
+        <v>1.063299165464266</v>
       </c>
       <c r="N4">
-        <v>1.022042290009998</v>
+        <v>1.018702146215948</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.050535091676219</v>
+        <v>1.028045213532862</v>
       </c>
       <c r="D5">
-        <v>1.058070399391584</v>
+        <v>1.051262932014038</v>
       </c>
       <c r="E5">
-        <v>1.057649872117223</v>
+        <v>1.041230406757183</v>
       </c>
       <c r="F5">
-        <v>1.068577476704975</v>
+        <v>1.054796096585629</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047455380138377</v>
+        <v>1.057344120697159</v>
       </c>
       <c r="J5">
-        <v>1.054902701152968</v>
+        <v>1.046321203291283</v>
       </c>
       <c r="K5">
-        <v>1.060449215600379</v>
+        <v>1.060569559594637</v>
       </c>
       <c r="L5">
-        <v>1.060029682910425</v>
+        <v>1.05064265518908</v>
       </c>
       <c r="M5">
-        <v>1.070931715244745</v>
+        <v>1.064066111322609</v>
       </c>
       <c r="N5">
-        <v>1.022102226187456</v>
+        <v>1.018967433903537</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.050580928771253</v>
+        <v>1.028252387280292</v>
       </c>
       <c r="D6">
-        <v>1.058100292635854</v>
+        <v>1.051395499788265</v>
       </c>
       <c r="E6">
-        <v>1.057688850412077</v>
+        <v>1.041397546648202</v>
       </c>
       <c r="F6">
-        <v>1.068615867874651</v>
+        <v>1.054961185144754</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047465977547003</v>
+        <v>1.05740176730192</v>
       </c>
       <c r="J6">
-        <v>1.054932415188621</v>
+        <v>1.046450400752962</v>
       </c>
       <c r="K6">
-        <v>1.060470533246718</v>
+        <v>1.060665477447739</v>
       </c>
       <c r="L6">
-        <v>1.060060060412789</v>
+        <v>1.050772296155021</v>
       </c>
       <c r="M6">
-        <v>1.070961604573721</v>
+        <v>1.064194382748679</v>
       </c>
       <c r="N6">
-        <v>1.02211228793614</v>
+        <v>1.019011785325539</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.050265789017809</v>
+        <v>1.026823140875632</v>
       </c>
       <c r="D7">
-        <v>1.057894774545084</v>
+        <v>1.050481271725448</v>
       </c>
       <c r="E7">
-        <v>1.057420893820478</v>
+        <v>1.040244947128822</v>
       </c>
       <c r="F7">
-        <v>1.068351945767439</v>
+        <v>1.053822753563839</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04739303429538</v>
+        <v>1.057003417805715</v>
       </c>
       <c r="J7">
-        <v>1.054728090227688</v>
+        <v>1.045558885484747</v>
       </c>
       <c r="K7">
-        <v>1.060323926756314</v>
+        <v>1.060003531553063</v>
       </c>
       <c r="L7">
-        <v>1.05985119189972</v>
+        <v>1.049877906263957</v>
       </c>
       <c r="M7">
-        <v>1.070756089786247</v>
+        <v>1.063309447240318</v>
       </c>
       <c r="N7">
-        <v>1.022043091000417</v>
+        <v>1.018705703897</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048949677263292</v>
+        <v>1.020729000446943</v>
       </c>
       <c r="D8">
-        <v>1.057036587504341</v>
+        <v>1.046591889489745</v>
       </c>
       <c r="E8">
-        <v>1.056302520595485</v>
+        <v>1.03534238764823</v>
       </c>
       <c r="F8">
-        <v>1.067250369883697</v>
+        <v>1.048981100638671</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047086316952607</v>
+        <v>1.055288600172168</v>
       </c>
       <c r="J8">
-        <v>1.053873911031655</v>
+        <v>1.041752522201826</v>
       </c>
       <c r="K8">
-        <v>1.059710586495946</v>
+        <v>1.057175668699206</v>
       </c>
       <c r="L8">
-        <v>1.058978484950809</v>
+        <v>1.046063994060955</v>
       </c>
       <c r="M8">
-        <v>1.069897325927745</v>
+        <v>1.059536079977431</v>
       </c>
       <c r="N8">
-        <v>1.021753601484747</v>
+        <v>1.017397945236231</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046634800174194</v>
+        <v>1.00950136856761</v>
       </c>
       <c r="D9">
-        <v>1.055527637027563</v>
+        <v>1.039465232224664</v>
       </c>
       <c r="E9">
-        <v>1.054338079856863</v>
+        <v>1.026359726067551</v>
       </c>
       <c r="F9">
-        <v>1.06531528938022</v>
+        <v>1.040113451580554</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046538994153726</v>
+        <v>1.05206957548557</v>
       </c>
       <c r="J9">
-        <v>1.052368292731427</v>
+        <v>1.034723013417038</v>
       </c>
       <c r="K9">
-        <v>1.058627801916892</v>
+        <v>1.051948894203226</v>
       </c>
       <c r="L9">
-        <v>1.057441974429183</v>
+        <v>1.039039136717774</v>
       </c>
       <c r="M9">
-        <v>1.068385111707588</v>
+        <v>1.052587594060902</v>
       </c>
       <c r="N9">
-        <v>1.021242539321749</v>
+        <v>1.01497962901056</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045094474165819</v>
+        <v>1.001650664741308</v>
       </c>
       <c r="D10">
-        <v>1.054523967933517</v>
+        <v>1.034513826447178</v>
       </c>
       <c r="E10">
-        <v>1.053032750718939</v>
+        <v>1.020116093866325</v>
       </c>
       <c r="F10">
-        <v>1.064029382786807</v>
+        <v>1.033953041710403</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046169541716841</v>
+        <v>1.049781100245428</v>
       </c>
       <c r="J10">
-        <v>1.051364301595046</v>
+        <v>1.02979894438891</v>
       </c>
       <c r="K10">
-        <v>1.057904662394428</v>
+        <v>1.04828668353529</v>
       </c>
       <c r="L10">
-        <v>1.056418577076008</v>
+        <v>1.034131402586737</v>
       </c>
       <c r="M10">
-        <v>1.067377736686124</v>
+        <v>1.047735179489898</v>
       </c>
       <c r="N10">
-        <v>1.020901219721667</v>
+        <v>1.013283863445482</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044428199446057</v>
+        <v>0.9981555688136784</v>
       </c>
       <c r="D11">
-        <v>1.05408993194974</v>
+        <v>1.032318289199178</v>
       </c>
       <c r="E11">
-        <v>1.05246856457131</v>
+        <v>1.017346196213551</v>
       </c>
       <c r="F11">
-        <v>1.063473573094704</v>
+        <v>1.031221074080883</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046008487592323</v>
+        <v>1.048754004838175</v>
       </c>
       <c r="J11">
-        <v>1.05092951519133</v>
+        <v>1.027605280094153</v>
       </c>
       <c r="K11">
-        <v>1.057591243620051</v>
+        <v>1.046655424307731</v>
       </c>
       <c r="L11">
-        <v>1.055975671205119</v>
+        <v>1.031948238589064</v>
       </c>
       <c r="M11">
-        <v>1.066941728939262</v>
+        <v>1.045577284487696</v>
       </c>
       <c r="N11">
-        <v>1.020753284429059</v>
+        <v>1.012528068773552</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.044180820716586</v>
+        <v>0.9968421348493156</v>
       </c>
       <c r="D12">
-        <v>1.053928797205173</v>
+        <v>1.031494657285226</v>
       </c>
       <c r="E12">
-        <v>1.052259156754139</v>
+        <v>1.01630682965915</v>
       </c>
       <c r="F12">
-        <v>1.063267271787045</v>
+        <v>1.030196112918753</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045948503377842</v>
+        <v>1.048366843652609</v>
       </c>
       <c r="J12">
-        <v>1.050768009263723</v>
+        <v>1.026780745109716</v>
       </c>
       <c r="K12">
-        <v>1.057474782699449</v>
+        <v>1.046042360516214</v>
       </c>
       <c r="L12">
-        <v>1.055811192093957</v>
+        <v>1.031128145800243</v>
       </c>
       <c r="M12">
-        <v>1.066779806294438</v>
+        <v>1.044766800603168</v>
       </c>
       <c r="N12">
-        <v>1.020698313774813</v>
+        <v>1.012243944665625</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044233879514241</v>
+        <v>0.9971245725841189</v>
       </c>
       <c r="D13">
-        <v>1.053963357259573</v>
+        <v>1.031671702358421</v>
       </c>
       <c r="E13">
-        <v>1.052304068359901</v>
+        <v>1.016530261559564</v>
       </c>
       <c r="F13">
-        <v>1.063311517253971</v>
+        <v>1.030416439949221</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04596137749699</v>
+        <v>1.048450150480906</v>
       </c>
       <c r="J13">
-        <v>1.050802653131828</v>
+        <v>1.026958057972206</v>
       </c>
       <c r="K13">
-        <v>1.057499765902158</v>
+        <v>1.046174193086133</v>
       </c>
       <c r="L13">
-        <v>1.055846471783232</v>
+        <v>1.031304480814475</v>
       </c>
       <c r="M13">
-        <v>1.066814537873201</v>
+        <v>1.044941063959788</v>
       </c>
       <c r="N13">
-        <v>1.020710106106372</v>
+        <v>1.012305046197976</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044407748889514</v>
+        <v>0.9980473149921534</v>
       </c>
       <c r="D14">
-        <v>1.054076610747676</v>
+        <v>1.032250375211893</v>
       </c>
       <c r="E14">
-        <v>1.052451251665186</v>
+        <v>1.017260499320989</v>
       </c>
       <c r="F14">
-        <v>1.063456517072152</v>
+        <v>1.031136561291948</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046003532570752</v>
+        <v>1.048722118590607</v>
       </c>
       <c r="J14">
-        <v>1.050916165196734</v>
+        <v>1.027537324692638</v>
       </c>
       <c r="K14">
-        <v>1.057581617800027</v>
+        <v>1.046604895788936</v>
       </c>
       <c r="L14">
-        <v>1.055962074573346</v>
+        <v>1.031880639161407</v>
       </c>
       <c r="M14">
-        <v>1.066928343743312</v>
+        <v>1.045510474634702</v>
       </c>
       <c r="N14">
-        <v>1.020748740961768</v>
+        <v>1.012504653044942</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044514889533592</v>
+        <v>0.9986138073081348</v>
       </c>
       <c r="D15">
-        <v>1.054146401340185</v>
+        <v>1.032605828393329</v>
       </c>
       <c r="E15">
-        <v>1.052541956872605</v>
+        <v>1.017709014580974</v>
       </c>
       <c r="F15">
-        <v>1.063545876319776</v>
+        <v>1.031578886431642</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046029484313132</v>
+        <v>1.048888931372861</v>
       </c>
       <c r="J15">
-        <v>1.050986102837858</v>
+        <v>1.02789292873094</v>
       </c>
       <c r="K15">
-        <v>1.057632043757679</v>
+        <v>1.046869310126926</v>
       </c>
       <c r="L15">
-        <v>1.056033306048199</v>
+        <v>1.03223440068496</v>
       </c>
       <c r="M15">
-        <v>1.066998467311915</v>
+        <v>1.045860109020263</v>
       </c>
       <c r="N15">
-        <v>1.020772542413304</v>
+        <v>1.012627183588777</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045138707361797</v>
+        <v>1.001880537718109</v>
       </c>
       <c r="D16">
-        <v>1.054552785386095</v>
+        <v>1.034658420185498</v>
       </c>
       <c r="E16">
-        <v>1.053070215706538</v>
+        <v>1.02029847997213</v>
       </c>
       <c r="F16">
-        <v>1.06406629116289</v>
+        <v>1.034132953096491</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046180207665425</v>
+        <v>1.049848484840487</v>
       </c>
       <c r="J16">
-        <v>1.05139315592226</v>
+        <v>1.029943195402163</v>
       </c>
       <c r="K16">
-        <v>1.05792545684717</v>
+        <v>1.048393960596635</v>
       </c>
       <c r="L16">
-        <v>1.056447976252263</v>
+        <v>1.034275031191235</v>
       </c>
       <c r="M16">
-        <v>1.067406677234286</v>
+        <v>1.047877160894016</v>
       </c>
       <c r="N16">
-        <v>1.020911034747956</v>
+        <v>1.013333556669921</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045530198804942</v>
+        <v>1.003903489406863</v>
       </c>
       <c r="D17">
-        <v>1.054807850182745</v>
+        <v>1.035931904451652</v>
       </c>
       <c r="E17">
-        <v>1.053401855186329</v>
+        <v>1.021904650656253</v>
       </c>
       <c r="F17">
-        <v>1.064393001432812</v>
+        <v>1.035717447915632</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046274463997403</v>
+        <v>1.050440554184661</v>
       </c>
       <c r="J17">
-        <v>1.051648476352433</v>
+        <v>1.031212484339393</v>
       </c>
       <c r="K17">
-        <v>1.058109428980599</v>
+        <v>1.04933794280579</v>
       </c>
       <c r="L17">
-        <v>1.056708150719949</v>
+        <v>1.035539211537834</v>
       </c>
       <c r="M17">
-        <v>1.067662788830474</v>
+        <v>1.049126920298737</v>
       </c>
       <c r="N17">
-        <v>1.020997869675568</v>
+        <v>1.013770778593854</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04575861630466</v>
+        <v>1.005074268892756</v>
       </c>
       <c r="D18">
-        <v>1.054956679032111</v>
+        <v>1.036669758887997</v>
       </c>
       <c r="E18">
-        <v>1.053595394175506</v>
+        <v>1.022835137533212</v>
       </c>
       <c r="F18">
-        <v>1.064583662040404</v>
+        <v>1.036635472095734</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046329337998527</v>
+        <v>1.050782423773468</v>
       </c>
       <c r="J18">
-        <v>1.051797395401861</v>
+        <v>1.031946937646066</v>
       </c>
       <c r="K18">
-        <v>1.058216708321077</v>
+        <v>1.049884183487444</v>
       </c>
       <c r="L18">
-        <v>1.056859928396236</v>
+        <v>1.036271013819451</v>
       </c>
       <c r="M18">
-        <v>1.067812192866552</v>
+        <v>1.049850436175601</v>
       </c>
       <c r="N18">
-        <v>1.021048505326578</v>
+        <v>1.014023737732955</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045836512139976</v>
+        <v>1.005471942428556</v>
       </c>
       <c r="D19">
-        <v>1.055007434914834</v>
+        <v>1.036920519791501</v>
       </c>
       <c r="E19">
-        <v>1.053661402771494</v>
+        <v>1.023151345445681</v>
       </c>
       <c r="F19">
-        <v>1.064648688624923</v>
+        <v>1.036947460235995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046348030937654</v>
+        <v>1.050898409522287</v>
       </c>
       <c r="J19">
-        <v>1.051848172068791</v>
+        <v>1.032196379977689</v>
       </c>
       <c r="K19">
-        <v>1.058253282939822</v>
+        <v>1.050069705486312</v>
       </c>
       <c r="L19">
-        <v>1.056911684415396</v>
+        <v>1.036519607194707</v>
       </c>
       <c r="M19">
-        <v>1.067863138880419</v>
+        <v>1.05009622458497</v>
       </c>
       <c r="N19">
-        <v>1.021065768440816</v>
+        <v>1.014109644551832</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045488188525824</v>
+        <v>1.003687400511477</v>
       </c>
       <c r="D20">
-        <v>1.054780478561171</v>
+        <v>1.035795785954129</v>
       </c>
       <c r="E20">
-        <v>1.053366263129193</v>
+        <v>1.021732985873562</v>
       </c>
       <c r="F20">
-        <v>1.064357938568867</v>
+        <v>1.035548089859502</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046264361951053</v>
+        <v>1.050377391653862</v>
       </c>
       <c r="J20">
-        <v>1.05162108340148</v>
+        <v>1.031076915352343</v>
       </c>
       <c r="K20">
-        <v>1.058089693451462</v>
+        <v>1.049237116415457</v>
       </c>
       <c r="L20">
-        <v>1.056680234146823</v>
+        <v>1.035404156464217</v>
       </c>
       <c r="M20">
-        <v>1.067635308560685</v>
+        <v>1.04899339934164</v>
       </c>
       <c r="N20">
-        <v>1.020988554523211</v>
+        <v>1.013724083503716</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044356545777685</v>
+        <v>0.9977760168483107</v>
       </c>
       <c r="D21">
-        <v>1.05404325804463</v>
+        <v>1.032080197471381</v>
       </c>
       <c r="E21">
-        <v>1.052407905532395</v>
+        <v>1.01704575690217</v>
       </c>
       <c r="F21">
-        <v>1.063413814055182</v>
+        <v>1.030924788899506</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045991123407266</v>
+        <v>1.048642188615731</v>
       </c>
       <c r="J21">
-        <v>1.050882738906371</v>
+        <v>1.027367017068165</v>
       </c>
       <c r="K21">
-        <v>1.057557515641407</v>
+        <v>1.046478264277982</v>
       </c>
       <c r="L21">
-        <v>1.055928031435284</v>
+        <v>1.031711231687224</v>
       </c>
       <c r="M21">
-        <v>1.066894829912399</v>
+        <v>1.045343047815513</v>
       </c>
       <c r="N21">
-        <v>1.020737364533668</v>
+        <v>1.012445968642056</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043645647046628</v>
+        <v>0.9939709026452644</v>
       </c>
       <c r="D22">
-        <v>1.053580233929145</v>
+        <v>1.029696928425001</v>
       </c>
       <c r="E22">
-        <v>1.051806251506481</v>
+        <v>1.014037650833451</v>
       </c>
       <c r="F22">
-        <v>1.062821080790485</v>
+        <v>1.027958725895599</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045818393125104</v>
+        <v>1.047518376535847</v>
       </c>
       <c r="J22">
-        <v>1.050418472931539</v>
+        <v>1.024978018759294</v>
       </c>
       <c r="K22">
-        <v>1.057222664706337</v>
+        <v>1.044702179273227</v>
       </c>
       <c r="L22">
-        <v>1.055455299649068</v>
+        <v>1.029336055780039</v>
       </c>
       <c r="M22">
-        <v>1.06642943600475</v>
+        <v>1.042995943018272</v>
       </c>
       <c r="N22">
-        <v>1.020579310687384</v>
+        <v>1.011622678210948</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0440224498567</v>
+        <v>0.9959967349605876</v>
       </c>
       <c r="D23">
-        <v>1.053825644285386</v>
+        <v>1.030964940968751</v>
       </c>
       <c r="E23">
-        <v>1.052125113621586</v>
+        <v>1.015638279982989</v>
       </c>
       <c r="F23">
-        <v>1.063135216451008</v>
+        <v>1.029536880570491</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045910049104241</v>
+        <v>1.048117318400236</v>
       </c>
       <c r="J23">
-        <v>1.050664592565096</v>
+        <v>1.02624998699769</v>
       </c>
       <c r="K23">
-        <v>1.057400198841453</v>
+        <v>1.04564775545849</v>
       </c>
       <c r="L23">
-        <v>1.055705883669883</v>
+        <v>1.030600388230773</v>
       </c>
       <c r="M23">
-        <v>1.066676133202304</v>
+        <v>1.044245261858159</v>
       </c>
       <c r="N23">
-        <v>1.020663109337945</v>
+        <v>1.012061041175363</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045507170955131</v>
+        <v>1.00378507007219</v>
       </c>
       <c r="D24">
-        <v>1.054792846452494</v>
+        <v>1.035857307306591</v>
       </c>
       <c r="E24">
-        <v>1.053382345341105</v>
+        <v>1.021810573431845</v>
       </c>
       <c r="F24">
-        <v>1.064373781671248</v>
+        <v>1.035624634552044</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046268926952731</v>
+        <v>1.050405942803934</v>
       </c>
       <c r="J24">
-        <v>1.051633461112529</v>
+        <v>1.031138191345248</v>
       </c>
       <c r="K24">
-        <v>1.05809861117572</v>
+        <v>1.049282688998086</v>
       </c>
       <c r="L24">
-        <v>1.056692848375715</v>
+        <v>1.035465199227948</v>
       </c>
       <c r="M24">
-        <v>1.067647725654759</v>
+        <v>1.0490537485195</v>
       </c>
       <c r="N24">
-        <v>1.020992763681939</v>
+        <v>1.013745189375196</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047232739290678</v>
+        <v>1.012465573425206</v>
       </c>
       <c r="D25">
-        <v>1.055917338415653</v>
+        <v>1.041341662525471</v>
       </c>
       <c r="E25">
-        <v>1.054845183074073</v>
+        <v>1.028725081352526</v>
       </c>
       <c r="F25">
-        <v>1.065814829579909</v>
+        <v>1.042448027039928</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046681298264929</v>
+        <v>1.052926122728922</v>
       </c>
       <c r="J25">
-        <v>1.052757578394785</v>
+        <v>1.036580582599282</v>
       </c>
       <c r="K25">
-        <v>1.058907958386913</v>
+        <v>1.05333039419657</v>
       </c>
       <c r="L25">
-        <v>1.057839037550614</v>
+        <v>1.040893261744994</v>
       </c>
       <c r="M25">
-        <v>1.068775925152006</v>
+        <v>1.05442128414371</v>
       </c>
       <c r="N25">
-        <v>1.021374770652022</v>
+        <v>1.015619008956266</v>
       </c>
     </row>
   </sheetData>
